--- a/VersionRecords/Version 5.2.1 20161229/版本Bug和特性计划及评审表v5.2.1_捷豹组.xlsx
+++ b/VersionRecords/Version 5.2.1 20161229/版本Bug和特性计划及评审表v5.2.1_捷豹组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="13060" tabRatio="813"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="813"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="95">
   <si>
     <t>No</t>
   </si>
@@ -381,6 +381,29 @@
   </si>
   <si>
     <t>Fix Bugs</t>
+  </si>
+  <si>
+    <t>房东APP高危问题修复</t>
+    <rPh sb="0" eb="1">
+      <t>fang'dong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gao'wei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen't</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiu'fu</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner、partnerpc</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner</t>
   </si>
 </sst>
 </file>
@@ -842,7 +865,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,6 +895,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1273,7 +1326,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="37">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 2 2" xfId="11"/>
@@ -1292,6 +1345,11 @@
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="个性色4" xfId="8" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
@@ -1301,6 +1359,11 @@
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1672,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -18479,7 +18542,7 @@
         <v>70</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="G8" s="84" t="s">
         <v>72</v>
@@ -18578,22 +18641,52 @@
       <c r="A10" s="80">
         <v>9</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="87"/>
+      <c r="B10" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="85">
+        <v>42732</v>
+      </c>
+      <c r="I10" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="85">
+        <v>42732</v>
+      </c>
+      <c r="K10" s="86"/>
+      <c r="L10" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" s="89">
+        <v>42732</v>
+      </c>
+      <c r="Q10" s="88" t="s">
+        <v>77</v>
+      </c>
       <c r="R10" s="44"/>
       <c r="S10" s="44"/>
       <c r="T10" s="49"/>
@@ -22177,7 +22270,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T15:T1048576 T10:T11 T1:T6 G1:G1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T15:T1048576 T10:T11 T1:T6 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">

--- a/VersionRecords/Version 5.2.1 20161229/版本Bug和特性计划及评审表v5.2.1_捷豹组.xlsx
+++ b/VersionRecords/Version 5.2.1 20161229/版本Bug和特性计划及评审表v5.2.1_捷豹组.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="99">
   <si>
     <t>No</t>
   </si>
@@ -417,6 +417,13 @@
     <t>免测</t>
     <rPh sb="0" eb="1">
       <t>mian'ce</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>李敖</t>
+    <rPh sb="0" eb="1">
+      <t>li'ao</t>
     </rPh>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -1324,6 +1331,9 @@
     <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1350,9 +1360,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1770,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -18599,7 +18606,7 @@
         <v>74</v>
       </c>
       <c r="N8" s="82" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="O8" s="87" t="s">
         <v>76</v>
@@ -18778,7 +18785,7 @@
       <c r="Q11" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="R11" s="114">
+      <c r="R11" s="105">
         <v>6895</v>
       </c>
       <c r="S11" s="44"/>
@@ -22532,19 +22539,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -22582,8 +22589,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -22595,8 +22602,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="108"/>
-      <c r="B4" s="109"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="110"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -22608,8 +22615,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -22621,8 +22628,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="109"/>
-      <c r="B6" s="109"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -22634,8 +22641,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="109"/>
-      <c r="B7" s="109"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -22647,8 +22654,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="109"/>
-      <c r="B8" s="109"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -22660,8 +22667,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="109"/>
-      <c r="B9" s="109"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -22673,8 +22680,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -22735,36 +22742,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="111"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="112"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="113"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="114"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -23049,36 +23056,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="111"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="112"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="113"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="114"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -23363,36 +23370,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="111"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="112"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="113"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="114"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -23679,36 +23686,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="111"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="112"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="113"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="114"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.2.1 20161229/版本Bug和特性计划及评审表v5.2.1_捷豹组.xlsx
+++ b/VersionRecords/Version 5.2.1 20161229/版本Bug和特性计划及评审表v5.2.1_捷豹组.xlsx
@@ -1778,7 +1778,7 @@
   <dimension ref="A1:XFD169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="D11" activeCellId="1" sqref="D9 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
